--- a/ui_framework.xlsx
+++ b/ui_framework.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\9.Source_Code\g4a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1654022E-E5CA-4798-8A2F-85FFE0EF0B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC3F36B-87DB-4A66-9E3B-500E3872BA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{0C5DD511-2C4D-4163-B970-79288CE15FAE}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0C5DD511-2C4D-4163-B970-79288CE15FAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Framework</t>
   </si>
@@ -90,13 +91,58 @@
   </si>
   <si>
     <t>Cần nhiều Control lạ</t>
+  </si>
+  <si>
+    <t>Mục</t>
+  </si>
+  <si>
+    <t>Giá trị cần nhập</t>
+  </si>
+  <si>
+    <t>Giải thích</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>PyUIC</t>
+  </si>
+  <si>
+    <t>Tên công cụ (bạn đặt gì cũng được)</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>pyuic5</t>
+  </si>
+  <si>
+    <t>Tên lệnh thực thi (nếu lỗi, xem lưu ý bên dưới)</t>
+  </si>
+  <si>
+    <t>Arguments</t>
+  </si>
+  <si>
+    <t>$FileName$ -o $FileNameWithoutExtension$.py</t>
+  </si>
+  <si>
+    <t>Chuyển file đang chọn thành file .py cùng tên</t>
+  </si>
+  <si>
+    <t>Working directory</t>
+  </si>
+  <si>
+    <t>$FileDir$</t>
+  </si>
+  <si>
+    <t>Thực hiện ngay tại thư mục chứa file đó</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -116,6 +162,21 @@
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,12 +214,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -497,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFEE1DB-982E-433C-BBB0-92859CC127E3}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -582,4 +649,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C5188B-E936-4748-8FCE-E1E288E924E0}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="54.6640625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>